--- a/Code/Results/Cases/Case_5_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25894035411678</v>
+        <v>20.76321629402796</v>
       </c>
       <c r="C2">
-        <v>12.99176045370421</v>
+        <v>6.977608749697993</v>
       </c>
       <c r="D2">
-        <v>10.54432614371748</v>
+        <v>10.27562151199105</v>
       </c>
       <c r="E2">
-        <v>7.245365470490089</v>
+        <v>10.16221892711302</v>
       </c>
       <c r="F2">
-        <v>64.12445203638102</v>
+        <v>53.19640514517793</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.175790983413225</v>
+        <v>10.07743624903725</v>
       </c>
       <c r="M2">
-        <v>12.53917535502076</v>
+        <v>17.6751976882505</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72362133337167</v>
+        <v>20.56136534886759</v>
       </c>
       <c r="C3">
-        <v>12.09670320904012</v>
+        <v>6.545288562991816</v>
       </c>
       <c r="D3">
-        <v>10.13612643714212</v>
+        <v>10.15621449206209</v>
       </c>
       <c r="E3">
-        <v>7.169722176053883</v>
+        <v>10.13950400312873</v>
       </c>
       <c r="F3">
-        <v>60.52158191526674</v>
+        <v>52.081782991659</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.109759934385859</v>
+        <v>10.09209268637333</v>
       </c>
       <c r="M3">
-        <v>12.05479119475911</v>
+        <v>17.67393970846745</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86076070429339</v>
+        <v>20.44576969684817</v>
       </c>
       <c r="C4">
-        <v>11.52635110431723</v>
+        <v>6.264247296778958</v>
       </c>
       <c r="D4">
-        <v>9.883851572180898</v>
+        <v>10.08222054588462</v>
       </c>
       <c r="E4">
-        <v>7.123766024032417</v>
+        <v>10.12499934053215</v>
       </c>
       <c r="F4">
-        <v>58.26075519414086</v>
+        <v>51.39215742805976</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.072943908010049</v>
+        <v>10.10261598828078</v>
       </c>
       <c r="M4">
-        <v>11.76335605890054</v>
+        <v>17.67828721713881</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50459605630782</v>
+        <v>20.40081852552255</v>
       </c>
       <c r="C5">
-        <v>11.28849216677787</v>
+        <v>6.145800879673959</v>
       </c>
       <c r="D5">
-        <v>9.78062031063012</v>
+        <v>10.05191071914747</v>
       </c>
       <c r="E5">
-        <v>7.105107124820351</v>
+        <v>10.11894723115809</v>
       </c>
       <c r="F5">
-        <v>57.32740430032638</v>
+        <v>51.11011740943114</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.058845347988668</v>
+        <v>10.10728735383755</v>
       </c>
       <c r="M5">
-        <v>11.64616332446426</v>
+        <v>17.68134529523607</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44518697112514</v>
+        <v>20.39348614657114</v>
       </c>
       <c r="C6">
-        <v>11.24866201128615</v>
+        <v>6.125896313450055</v>
       </c>
       <c r="D6">
-        <v>9.763452929519897</v>
+        <v>10.04686872945196</v>
       </c>
       <c r="E6">
-        <v>7.102011501633113</v>
+        <v>10.11793371346354</v>
       </c>
       <c r="F6">
-        <v>57.17170442742429</v>
+        <v>51.06323286136561</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.056557977058686</v>
+        <v>10.10808615715359</v>
       </c>
       <c r="M6">
-        <v>11.62680068014778</v>
+        <v>17.68193073778849</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85597547435525</v>
+        <v>20.44515467217441</v>
       </c>
       <c r="C7">
-        <v>11.52316552012658</v>
+        <v>6.262665753540227</v>
       </c>
       <c r="D7">
-        <v>9.882461096207768</v>
+        <v>10.08181239341741</v>
       </c>
       <c r="E7">
-        <v>7.123514173101891</v>
+        <v>10.12491829344967</v>
       </c>
       <c r="F7">
-        <v>58.24821605708856</v>
+        <v>51.38835742474631</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.072750150829483</v>
+        <v>10.10267743738798</v>
       </c>
       <c r="M7">
-        <v>11.76176909930208</v>
+        <v>17.67832325266093</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72677228771871</v>
+        <v>20.69192284605454</v>
       </c>
       <c r="C8">
-        <v>12.68732215173531</v>
+        <v>6.831781386851232</v>
       </c>
       <c r="D8">
-        <v>10.40390391113607</v>
+        <v>10.23459882119556</v>
       </c>
       <c r="E8">
-        <v>7.219147293932061</v>
+        <v>10.15450187114349</v>
       </c>
       <c r="F8">
-        <v>62.8923206664241</v>
+        <v>52.81335284625715</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.152229365961083</v>
+        <v>10.0821733121836</v>
       </c>
       <c r="M8">
-        <v>12.3709510488341</v>
+        <v>17.67370094145012</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44290489763835</v>
+        <v>21.23924707961388</v>
       </c>
       <c r="C9">
-        <v>14.81660584420617</v>
+        <v>7.824177648357022</v>
       </c>
       <c r="D9">
-        <v>11.41528369924984</v>
+        <v>10.52823790623437</v>
       </c>
       <c r="E9">
-        <v>7.413419664753707</v>
+        <v>10.20814250218221</v>
       </c>
       <c r="F9">
-        <v>71.61786206572404</v>
+        <v>55.55317911498504</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.339289337254114</v>
+        <v>10.05406845544233</v>
       </c>
       <c r="M9">
-        <v>13.81451578522651</v>
+        <v>17.70527014309124</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.02783258550906</v>
+        <v>21.67600274356233</v>
       </c>
       <c r="C10">
-        <v>16.30631534443784</v>
+        <v>8.478250637465971</v>
       </c>
       <c r="D10">
-        <v>12.15612224180585</v>
+        <v>10.73953937687238</v>
       </c>
       <c r="E10">
-        <v>7.5650168398269</v>
+        <v>10.24495939471958</v>
       </c>
       <c r="F10">
-        <v>77.82184008227473</v>
+        <v>57.51628383688331</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.498323579633664</v>
+        <v>10.04081115358301</v>
       </c>
       <c r="M10">
-        <v>15.25101836080337</v>
+        <v>17.75319598954625</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.17901339239244</v>
+        <v>21.88129162367294</v>
       </c>
       <c r="C11">
-        <v>16.97317745366818</v>
+        <v>8.759620414251589</v>
       </c>
       <c r="D11">
-        <v>12.49436764326045</v>
+        <v>10.83453680030563</v>
       </c>
       <c r="E11">
-        <v>7.637257557978483</v>
+        <v>10.26116114932803</v>
       </c>
       <c r="F11">
-        <v>80.61099556091162</v>
+        <v>58.39528615126658</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.576061221172318</v>
+        <v>10.03638687428107</v>
       </c>
       <c r="M11">
-        <v>15.88742534080989</v>
+        <v>17.78034195012373</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.6121138716071</v>
+        <v>21.95989887169857</v>
       </c>
       <c r="C12">
-        <v>17.2247059896368</v>
+        <v>8.863852382217932</v>
       </c>
       <c r="D12">
-        <v>12.6228309521205</v>
+        <v>10.87033426203832</v>
       </c>
       <c r="E12">
-        <v>7.665227112858648</v>
+        <v>10.26721901117585</v>
       </c>
       <c r="F12">
-        <v>81.66385696667588</v>
+        <v>58.72587409507312</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.606345587334059</v>
+        <v>10.03494257431568</v>
       </c>
       <c r="M12">
-        <v>16.12637397106726</v>
+        <v>17.79138605564508</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51895031366244</v>
+        <v>21.94293205826419</v>
       </c>
       <c r="C13">
-        <v>17.17056907320646</v>
+        <v>8.841507047008429</v>
       </c>
       <c r="D13">
-        <v>12.59514350605664</v>
+        <v>10.86263269005824</v>
       </c>
       <c r="E13">
-        <v>7.659173486091032</v>
+        <v>10.26591776526293</v>
       </c>
       <c r="F13">
-        <v>81.43722530512008</v>
+        <v>58.65478095806817</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.599784348684117</v>
+        <v>10.03524335246426</v>
       </c>
       <c r="M13">
-        <v>16.07499570993452</v>
+        <v>17.78897358077518</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21469673406476</v>
+        <v>21.88774174614223</v>
       </c>
       <c r="C14">
-        <v>16.99388725003614</v>
+        <v>8.768242016561572</v>
       </c>
       <c r="D14">
-        <v>12.50492748972241</v>
+        <v>10.83748548706569</v>
       </c>
       <c r="E14">
-        <v>7.639545410061535</v>
+        <v>10.26166107746956</v>
       </c>
       <c r="F14">
-        <v>80.6976721859718</v>
+        <v>58.42253073841886</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.578535301317211</v>
+        <v>10.03626341953435</v>
       </c>
       <c r="M14">
-        <v>15.90712215357815</v>
+        <v>17.78123525927681</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.02798885432612</v>
+        <v>21.85404680120337</v>
       </c>
       <c r="C15">
-        <v>16.88555309107495</v>
+        <v>8.723063649627333</v>
       </c>
       <c r="D15">
-        <v>12.44972358863863</v>
+        <v>10.82205875991617</v>
       </c>
       <c r="E15">
-        <v>7.627607286451378</v>
+        <v>10.25904369005426</v>
       </c>
       <c r="F15">
-        <v>80.24429022369532</v>
+        <v>58.27996772153743</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.565632293919131</v>
+        <v>10.03691833422556</v>
       </c>
       <c r="M15">
-        <v>15.80404188971474</v>
+        <v>17.77659474316815</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.95216148056575</v>
+        <v>21.66271265883937</v>
       </c>
       <c r="C16">
-        <v>16.26256187226242</v>
+        <v>8.459537777294084</v>
       </c>
       <c r="D16">
-        <v>12.13405774545736</v>
+        <v>10.73330721397141</v>
       </c>
       <c r="E16">
-        <v>7.560373193191078</v>
+        <v>10.24388967743671</v>
       </c>
       <c r="F16">
-        <v>77.63900910421481</v>
+        <v>57.45853464763976</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.493357532584207</v>
+        <v>10.04113262462789</v>
       </c>
       <c r="M16">
-        <v>15.20911756716118</v>
+        <v>17.75152915820444</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.28631523392892</v>
+        <v>21.54697008781206</v>
       </c>
       <c r="C17">
-        <v>15.87797002271649</v>
+        <v>8.293737220753911</v>
       </c>
       <c r="D17">
-        <v>11.94084801873076</v>
+        <v>10.67856271682715</v>
       </c>
       <c r="E17">
-        <v>7.520059106900212</v>
+        <v>10.23445406729067</v>
       </c>
       <c r="F17">
-        <v>76.03316940377483</v>
+        <v>56.95083404100146</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.450446908963444</v>
+        <v>10.04412948726079</v>
       </c>
       <c r="M17">
-        <v>14.84004847074639</v>
+        <v>17.737518487566</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.90095969598297</v>
+        <v>21.48102482537235</v>
       </c>
       <c r="C18">
-        <v>15.65570590306042</v>
+        <v>8.196850407299589</v>
       </c>
       <c r="D18">
-        <v>11.82982010375563</v>
+        <v>10.64697010841545</v>
       </c>
       <c r="E18">
-        <v>7.497170051292229</v>
+        <v>10.22897544943037</v>
       </c>
       <c r="F18">
-        <v>75.10631238532544</v>
+        <v>56.65751231165109</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.426268392885882</v>
+        <v>10.04600441768186</v>
       </c>
       <c r="M18">
-        <v>14.62613507046241</v>
+        <v>17.72996324385313</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77005678704222</v>
+        <v>21.4588070001769</v>
       </c>
       <c r="C19">
-        <v>15.58025431298258</v>
+        <v>8.163784419350574</v>
       </c>
       <c r="D19">
-        <v>11.7922401498139</v>
+        <v>10.63625579597304</v>
       </c>
       <c r="E19">
-        <v>7.489467620759743</v>
+        <v>10.22711160167348</v>
       </c>
       <c r="F19">
-        <v>74.79190468231822</v>
+        <v>56.55798236487698</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.418166321431916</v>
+        <v>10.04666520536776</v>
       </c>
       <c r="M19">
-        <v>14.55341563125836</v>
+        <v>17.72749172045719</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.35743708725283</v>
+        <v>21.55922679485278</v>
       </c>
       <c r="C20">
-        <v>15.91901619607924</v>
+        <v>8.311544508447311</v>
       </c>
       <c r="D20">
-        <v>11.96140378004851</v>
+        <v>10.68440133562119</v>
       </c>
       <c r="E20">
-        <v>7.524318776027869</v>
+        <v>10.2354638260526</v>
       </c>
       <c r="F20">
-        <v>76.20443809669371</v>
+        <v>57.00501667418031</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.454962334493411</v>
+        <v>10.04379481540629</v>
       </c>
       <c r="M20">
-        <v>14.87950295386573</v>
+        <v>17.73895788121139</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.30413349524624</v>
+        <v>21.90392955207732</v>
       </c>
       <c r="C21">
-        <v>17.0458050472136</v>
+        <v>8.789824530692481</v>
       </c>
       <c r="D21">
-        <v>12.53141400776474</v>
+        <v>10.84487671910196</v>
       </c>
       <c r="E21">
-        <v>7.64529271486363</v>
+        <v>10.26291346073618</v>
       </c>
       <c r="F21">
-        <v>80.91497380057734</v>
+        <v>58.49081184494358</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.584753037090858</v>
+        <v>10.03595752947919</v>
       </c>
       <c r="M21">
-        <v>15.95648254138848</v>
+        <v>17.78348747928734</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.5603982434373</v>
+        <v>22.1342385130235</v>
       </c>
       <c r="C22">
-        <v>17.77675906856173</v>
+        <v>9.088909640996826</v>
       </c>
       <c r="D22">
-        <v>12.90628359594712</v>
+        <v>10.9487243865137</v>
       </c>
       <c r="E22">
-        <v>7.72802222838585</v>
+        <v>10.28040284695567</v>
       </c>
       <c r="F22">
-        <v>83.97514932982543</v>
+        <v>59.44852022281044</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.674559242722437</v>
+        <v>10.0321823036225</v>
       </c>
       <c r="M22">
-        <v>16.64868119242217</v>
+        <v>17.81704386016261</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89108664043168</v>
+        <v>22.01088549948896</v>
       </c>
       <c r="C23">
-        <v>17.38691974255837</v>
+        <v>8.930514261058068</v>
       </c>
       <c r="D23">
-        <v>12.70591330451513</v>
+        <v>10.8933980232923</v>
       </c>
       <c r="E23">
-        <v>7.68347710209763</v>
+        <v>10.27110926235287</v>
       </c>
       <c r="F23">
-        <v>82.34297630697009</v>
+        <v>58.93867418625543</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.626144607668265</v>
+        <v>10.03407396541892</v>
       </c>
       <c r="M23">
-        <v>16.28015326323045</v>
+        <v>17.79872822334587</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.32529089800086</v>
+        <v>21.5536836729179</v>
       </c>
       <c r="C24">
-        <v>15.90046286589751</v>
+        <v>8.303498711652555</v>
       </c>
       <c r="D24">
-        <v>11.95211037601861</v>
+        <v>10.68176206647118</v>
       </c>
       <c r="E24">
-        <v>7.522392092724396</v>
+        <v>10.23500748227889</v>
       </c>
       <c r="F24">
-        <v>76.12701895523192</v>
+        <v>56.98052516493243</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.452919385286054</v>
+        <v>10.04394564712904</v>
       </c>
       <c r="M24">
-        <v>14.86167100253713</v>
+        <v>17.7383055746701</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46503091183229</v>
+        <v>21.08479358039419</v>
       </c>
       <c r="C25">
-        <v>14.25526459595832</v>
+        <v>7.568917841879596</v>
       </c>
       <c r="D25">
-        <v>11.14251318515671</v>
+        <v>10.4495225010029</v>
       </c>
       <c r="E25">
-        <v>7.359700810140475</v>
+        <v>10.19409191574789</v>
       </c>
       <c r="F25">
-        <v>69.29655993848749</v>
+        <v>54.81958752117841</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.285098480322886</v>
+        <v>10.06037428862328</v>
       </c>
       <c r="M25">
-        <v>13.271092866805</v>
+        <v>17.69238019449641</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.76321629402796</v>
+        <v>21.25894035411671</v>
       </c>
       <c r="C2">
-        <v>6.977608749697993</v>
+        <v>12.991760453704</v>
       </c>
       <c r="D2">
-        <v>10.27562151199105</v>
+        <v>10.54432614371762</v>
       </c>
       <c r="E2">
-        <v>10.16221892711302</v>
+        <v>7.245365470490091</v>
       </c>
       <c r="F2">
-        <v>53.19640514517793</v>
+        <v>64.12445203638111</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.07743624903725</v>
+        <v>6.175790983413268</v>
       </c>
       <c r="M2">
-        <v>17.6751976882505</v>
+        <v>12.53917535502079</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.56136534886759</v>
+        <v>19.72362133337166</v>
       </c>
       <c r="C3">
-        <v>6.545288562991816</v>
+        <v>12.09670320904042</v>
       </c>
       <c r="D3">
-        <v>10.15621449206209</v>
+        <v>10.13612643714214</v>
       </c>
       <c r="E3">
-        <v>10.13950400312873</v>
+        <v>7.169722176054083</v>
       </c>
       <c r="F3">
-        <v>52.081782991659</v>
+        <v>60.52158191526642</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.09209268637333</v>
+        <v>6.109759934385858</v>
       </c>
       <c r="M3">
-        <v>17.67393970846745</v>
+        <v>12.05479119475913</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.44576969684817</v>
+        <v>18.86076070429338</v>
       </c>
       <c r="C4">
-        <v>6.264247296778958</v>
+        <v>11.5263511043173</v>
       </c>
       <c r="D4">
-        <v>10.08222054588462</v>
+        <v>9.883851572180994</v>
       </c>
       <c r="E4">
-        <v>10.12499934053215</v>
+        <v>7.123766024032359</v>
       </c>
       <c r="F4">
-        <v>51.39215742805976</v>
+        <v>58.26075519414098</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.10261598828078</v>
+        <v>6.072943908010064</v>
       </c>
       <c r="M4">
-        <v>17.67828721713881</v>
+        <v>11.7633560589005</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.40081852552255</v>
+        <v>18.50459605630784</v>
       </c>
       <c r="C5">
-        <v>6.145800879673959</v>
+        <v>11.28849216677809</v>
       </c>
       <c r="D5">
-        <v>10.05191071914747</v>
+        <v>9.780620310630169</v>
       </c>
       <c r="E5">
-        <v>10.11894723115809</v>
+        <v>7.105107124820417</v>
       </c>
       <c r="F5">
-        <v>51.11011740943114</v>
+        <v>57.32740430032631</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.10728735383755</v>
+        <v>6.058845347988631</v>
       </c>
       <c r="M5">
-        <v>17.68134529523607</v>
+        <v>11.64616332446428</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.39348614657114</v>
+        <v>18.44518697112513</v>
       </c>
       <c r="C6">
-        <v>6.125896313450055</v>
+        <v>11.24866201128607</v>
       </c>
       <c r="D6">
-        <v>10.04686872945196</v>
+        <v>9.763452929520035</v>
       </c>
       <c r="E6">
-        <v>10.11793371346354</v>
+        <v>7.102011501632928</v>
       </c>
       <c r="F6">
-        <v>51.06323286136561</v>
+        <v>57.17170442742464</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.10808615715359</v>
+        <v>6.05655797705867</v>
       </c>
       <c r="M6">
-        <v>17.68193073778849</v>
+        <v>11.6268006801477</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.44515467217441</v>
+        <v>18.8559754743552</v>
       </c>
       <c r="C7">
-        <v>6.262665753540227</v>
+        <v>11.52316552012713</v>
       </c>
       <c r="D7">
-        <v>10.08181239341741</v>
+        <v>9.882461096207676</v>
       </c>
       <c r="E7">
-        <v>10.12491829344967</v>
+        <v>7.123514173102024</v>
       </c>
       <c r="F7">
-        <v>51.38835742474631</v>
+        <v>58.24821605708863</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.10267743738798</v>
+        <v>6.072750150829383</v>
       </c>
       <c r="M7">
-        <v>17.67832325266093</v>
+        <v>11.76176909930193</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69192284605454</v>
+        <v>20.72677228771876</v>
       </c>
       <c r="C8">
-        <v>6.831781386851232</v>
+        <v>12.68732215173514</v>
       </c>
       <c r="D8">
-        <v>10.23459882119556</v>
+        <v>10.4039039111361</v>
       </c>
       <c r="E8">
-        <v>10.15450187114349</v>
+        <v>7.219147293932071</v>
       </c>
       <c r="F8">
-        <v>52.81335284625715</v>
+        <v>62.89232066642434</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.0821733121836</v>
+        <v>6.152229365961097</v>
       </c>
       <c r="M8">
-        <v>17.67370094145012</v>
+        <v>12.37095104883405</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.23924707961388</v>
+        <v>24.44290489763856</v>
       </c>
       <c r="C9">
-        <v>7.824177648357022</v>
+        <v>14.8166058442061</v>
       </c>
       <c r="D9">
-        <v>10.52823790623437</v>
+        <v>11.41528369924994</v>
       </c>
       <c r="E9">
-        <v>10.20814250218221</v>
+        <v>7.413419664753659</v>
       </c>
       <c r="F9">
-        <v>55.55317911498504</v>
+        <v>71.6178620657244</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.05406845544233</v>
+        <v>6.33928933725411</v>
       </c>
       <c r="M9">
-        <v>17.70527014309124</v>
+        <v>13.81451578522662</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.67600274356233</v>
+        <v>27.02783258550892</v>
       </c>
       <c r="C10">
-        <v>8.478250637465971</v>
+        <v>16.30631534443795</v>
       </c>
       <c r="D10">
-        <v>10.73953937687238</v>
+        <v>12.15612224180573</v>
       </c>
       <c r="E10">
-        <v>10.24495939471958</v>
+        <v>7.56501683982675</v>
       </c>
       <c r="F10">
-        <v>57.51628383688331</v>
+        <v>77.82184008227412</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.04081115358301</v>
+        <v>6.498323579633642</v>
       </c>
       <c r="M10">
-        <v>17.75319598954625</v>
+        <v>15.25101836080332</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.88129162367294</v>
+        <v>28.17901339239251</v>
       </c>
       <c r="C11">
-        <v>8.759620414251589</v>
+        <v>16.97317745366824</v>
       </c>
       <c r="D11">
-        <v>10.83453680030563</v>
+        <v>12.4943676432606</v>
       </c>
       <c r="E11">
-        <v>10.26116114932803</v>
+        <v>7.637257557978491</v>
       </c>
       <c r="F11">
-        <v>58.39528615126658</v>
+        <v>80.61099556091187</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.03638687428107</v>
+        <v>6.576061221172338</v>
       </c>
       <c r="M11">
-        <v>17.78034195012373</v>
+        <v>15.88742534080991</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.95989887169857</v>
+        <v>28.61211387160706</v>
       </c>
       <c r="C12">
-        <v>8.863852382217932</v>
+        <v>17.22470598963703</v>
       </c>
       <c r="D12">
-        <v>10.87033426203832</v>
+        <v>12.62283095212068</v>
       </c>
       <c r="E12">
-        <v>10.26721901117585</v>
+        <v>7.665227112858647</v>
       </c>
       <c r="F12">
-        <v>58.72587409507312</v>
+        <v>81.66385696667608</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.03494257431568</v>
+        <v>6.606345587334054</v>
       </c>
       <c r="M12">
-        <v>17.79138605564508</v>
+        <v>16.12637397106728</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.94293205826419</v>
+        <v>28.51895031366242</v>
       </c>
       <c r="C13">
-        <v>8.841507047008429</v>
+        <v>17.17056907320652</v>
       </c>
       <c r="D13">
-        <v>10.86263269005824</v>
+        <v>12.59514350605649</v>
       </c>
       <c r="E13">
-        <v>10.26591776526293</v>
+        <v>7.659173486091136</v>
       </c>
       <c r="F13">
-        <v>58.65478095806817</v>
+        <v>81.43722530511936</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.03524335246426</v>
+        <v>6.599784348684122</v>
       </c>
       <c r="M13">
-        <v>17.78897358077518</v>
+        <v>16.07499570993448</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.88774174614223</v>
+        <v>28.21469673406483</v>
       </c>
       <c r="C14">
-        <v>8.768242016561572</v>
+        <v>16.99388725003606</v>
       </c>
       <c r="D14">
-        <v>10.83748548706569</v>
+        <v>12.50492748972246</v>
       </c>
       <c r="E14">
-        <v>10.26166107746956</v>
+        <v>7.639545410061401</v>
       </c>
       <c r="F14">
-        <v>58.42253073841886</v>
+        <v>80.69767218597175</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.03626341953435</v>
+        <v>6.578535301317183</v>
       </c>
       <c r="M14">
-        <v>17.78123525927681</v>
+        <v>15.90712215357823</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.85404680120337</v>
+        <v>28.02798885432621</v>
       </c>
       <c r="C15">
-        <v>8.723063649627333</v>
+        <v>16.8855530910749</v>
       </c>
       <c r="D15">
-        <v>10.82205875991617</v>
+        <v>12.44972358863868</v>
       </c>
       <c r="E15">
-        <v>10.25904369005426</v>
+        <v>7.627607286451382</v>
       </c>
       <c r="F15">
-        <v>58.27996772153743</v>
+        <v>80.24429022369549</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.03691833422556</v>
+        <v>6.565632293919147</v>
       </c>
       <c r="M15">
-        <v>17.77659474316815</v>
+        <v>15.80404188971477</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.66271265883937</v>
+        <v>26.95216148056576</v>
       </c>
       <c r="C16">
-        <v>8.459537777294084</v>
+        <v>16.26256187226257</v>
       </c>
       <c r="D16">
-        <v>10.73330721397141</v>
+        <v>12.13405774545747</v>
       </c>
       <c r="E16">
-        <v>10.24388967743671</v>
+        <v>7.560373193191197</v>
       </c>
       <c r="F16">
-        <v>57.45853464763976</v>
+        <v>77.63900910421488</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.04113262462789</v>
+        <v>6.493357532584215</v>
       </c>
       <c r="M16">
-        <v>17.75152915820444</v>
+        <v>15.20911756716111</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.54697008781206</v>
+        <v>26.28631523392892</v>
       </c>
       <c r="C17">
-        <v>8.293737220753911</v>
+        <v>15.87797002271634</v>
       </c>
       <c r="D17">
-        <v>10.67856271682715</v>
+        <v>11.94084801873079</v>
       </c>
       <c r="E17">
-        <v>10.23445406729067</v>
+        <v>7.520059106900284</v>
       </c>
       <c r="F17">
-        <v>56.95083404100146</v>
+        <v>76.03316940377523</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.04412948726079</v>
+        <v>6.450446908963435</v>
       </c>
       <c r="M17">
-        <v>17.737518487566</v>
+        <v>14.84004847074636</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.48102482537235</v>
+        <v>25.90095969598288</v>
       </c>
       <c r="C18">
-        <v>8.196850407299589</v>
+        <v>15.65570590306012</v>
       </c>
       <c r="D18">
-        <v>10.64697010841545</v>
+        <v>11.82982010375571</v>
       </c>
       <c r="E18">
-        <v>10.22897544943037</v>
+        <v>7.497170051291961</v>
       </c>
       <c r="F18">
-        <v>56.65751231165109</v>
+        <v>75.10631238532531</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.04600441768186</v>
+        <v>6.426268392885835</v>
       </c>
       <c r="M18">
-        <v>17.72996324385313</v>
+        <v>14.62613507046238</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.4588070001769</v>
+        <v>25.77005678704208</v>
       </c>
       <c r="C19">
-        <v>8.163784419350574</v>
+        <v>15.58025431298264</v>
       </c>
       <c r="D19">
-        <v>10.63625579597304</v>
+        <v>11.79224014981389</v>
       </c>
       <c r="E19">
-        <v>10.22711160167348</v>
+        <v>7.489467620759728</v>
       </c>
       <c r="F19">
-        <v>56.55798236487698</v>
+        <v>74.79190468231781</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.04666520536776</v>
+        <v>6.418166321431949</v>
       </c>
       <c r="M19">
-        <v>17.72749172045719</v>
+        <v>14.55341563125828</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.55922679485278</v>
+        <v>26.35743708725296</v>
       </c>
       <c r="C20">
-        <v>8.311544508447311</v>
+        <v>15.91901619607947</v>
       </c>
       <c r="D20">
-        <v>10.68440133562119</v>
+        <v>11.96140378004869</v>
       </c>
       <c r="E20">
-        <v>10.2354638260526</v>
+        <v>7.524318776028094</v>
       </c>
       <c r="F20">
-        <v>57.00501667418031</v>
+        <v>76.20443809669432</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.04379481540629</v>
+        <v>6.454962334493448</v>
       </c>
       <c r="M20">
-        <v>17.73895788121139</v>
+        <v>14.87950295386582</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.90392955207732</v>
+        <v>28.30413349524611</v>
       </c>
       <c r="C21">
-        <v>8.789824530692481</v>
+        <v>17.04580504721351</v>
       </c>
       <c r="D21">
-        <v>10.84487671910196</v>
+        <v>12.53141400776479</v>
       </c>
       <c r="E21">
-        <v>10.26291346073618</v>
+        <v>7.645292714863626</v>
       </c>
       <c r="F21">
-        <v>58.49081184494358</v>
+        <v>80.91497380057766</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.03595752947919</v>
+        <v>6.584753037090872</v>
       </c>
       <c r="M21">
-        <v>17.78348747928734</v>
+        <v>15.95648254138844</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.1342385130235</v>
+        <v>29.56039824343733</v>
       </c>
       <c r="C22">
-        <v>9.088909640996826</v>
+        <v>17.77675906856145</v>
       </c>
       <c r="D22">
-        <v>10.9487243865137</v>
+        <v>12.90628359594711</v>
       </c>
       <c r="E22">
-        <v>10.28040284695567</v>
+        <v>7.7280222283859</v>
       </c>
       <c r="F22">
-        <v>59.44852022281044</v>
+        <v>83.9751493298252</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.0321823036225</v>
+        <v>6.674559242722469</v>
       </c>
       <c r="M22">
-        <v>17.81704386016261</v>
+        <v>16.64868119242213</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.01088549948896</v>
+        <v>28.89108664043155</v>
       </c>
       <c r="C23">
-        <v>8.930514261058068</v>
+        <v>17.38691974255829</v>
       </c>
       <c r="D23">
-        <v>10.8933980232923</v>
+        <v>12.7059133045152</v>
       </c>
       <c r="E23">
-        <v>10.27110926235287</v>
+        <v>7.683477102097583</v>
       </c>
       <c r="F23">
-        <v>58.93867418625543</v>
+        <v>82.34297630697026</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.03407396541892</v>
+        <v>6.626144607668261</v>
       </c>
       <c r="M23">
-        <v>17.79872822334587</v>
+        <v>16.28015326323044</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.5536836729179</v>
+        <v>26.32529089800074</v>
       </c>
       <c r="C24">
-        <v>8.303498711652555</v>
+        <v>15.90046286589723</v>
       </c>
       <c r="D24">
-        <v>10.68176206647118</v>
+        <v>11.95211037601869</v>
       </c>
       <c r="E24">
-        <v>10.23500748227889</v>
+        <v>7.522392092724382</v>
       </c>
       <c r="F24">
-        <v>56.98052516493243</v>
+        <v>76.12701895523168</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.04394564712904</v>
+        <v>6.452919385286063</v>
       </c>
       <c r="M24">
-        <v>17.7383055746701</v>
+        <v>14.86167100253698</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.08479358039419</v>
+        <v>23.46503091183218</v>
       </c>
       <c r="C25">
-        <v>7.568917841879596</v>
+        <v>14.25526459595818</v>
       </c>
       <c r="D25">
-        <v>10.4495225010029</v>
+        <v>11.14251318515684</v>
       </c>
       <c r="E25">
-        <v>10.19409191574789</v>
+        <v>7.359700810140346</v>
       </c>
       <c r="F25">
-        <v>54.81958752117841</v>
+        <v>69.29655993848772</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.06037428862328</v>
+        <v>6.285098480322859</v>
       </c>
       <c r="M25">
-        <v>17.69238019449641</v>
+        <v>13.27109286680501</v>
       </c>
       <c r="N25">
         <v>0</v>
